--- a/biology/Botanique/Empire_(pomme)/Empire_(pomme).xlsx
+++ b/biology/Botanique/Empire_(pomme)/Empire_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empire est le nom d'un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Empire.
@@ -512,7 +524,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Empire" sont des pommes rouge foncé, juteuses, fermes, croquantes et sucrées.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Création par le "New York State Agricultural Experiment Station" de Geneva en 1945. Le cultivar a été diffusé en 1966.
 </t>
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété est issue d'un croisement entre les variétés McIntosh et Red delicious.
 </t>
@@ -605,7 +623,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe pollinique: C (mi-saison), floraison: 3 jours avant le Golden delicious.
 </t>
@@ -636,7 +656,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar est de faible vigueur et doit donc être porté par un porte-greffe approprié.
 Les pommes sont cueillies entre septembre et octobre et se conservent jusqu'en janvier. Cependant, certains pomiculteurs les conservent facilement jusqu'en juin, contrôlées, réfrigérées dans une atmosphère au gaz. Elles demeurent ainsi encore juteuses, fermes, croquantes et sucrées.
@@ -668,9 +690,11 @@
           <t>Susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure : élevée[1]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : élevée
 Mildiou : élevée
 Rouille : faible
 Feu bactérien : moyenne
